--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H2">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I2">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J2">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N2">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O2">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P2">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q2">
-        <v>20.15189202428567</v>
+        <v>11.920159251533</v>
       </c>
       <c r="R2">
-        <v>181.367028218571</v>
+        <v>107.281433263797</v>
       </c>
       <c r="S2">
-        <v>0.005568038446404108</v>
+        <v>0.002153360205891799</v>
       </c>
       <c r="T2">
-        <v>0.006797336255142448</v>
+        <v>0.002654789311009931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H3">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I3">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J3">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P3">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q3">
-        <v>30.40689072206233</v>
+        <v>22.336004626021</v>
       </c>
       <c r="R3">
-        <v>273.662016498561</v>
+        <v>201.024041634189</v>
       </c>
       <c r="S3">
-        <v>0.008401530554650385</v>
+        <v>0.0040349682001189</v>
       </c>
       <c r="T3">
-        <v>0.01025639976941844</v>
+        <v>0.004974546487221045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H4">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I4">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J4">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N4">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O4">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P4">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q4">
-        <v>143.3842220139063</v>
+        <v>127.704392065057</v>
       </c>
       <c r="R4">
-        <v>1290.457998125157</v>
+        <v>1149.339528585513</v>
       </c>
       <c r="S4">
-        <v>0.03961756344362274</v>
+        <v>0.02306962098305293</v>
       </c>
       <c r="T4">
-        <v>0.04836423148436692</v>
+        <v>0.02844158772289336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H5">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I5">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J5">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N5">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O5">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P5">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q5">
-        <v>20.4226850976065</v>
+        <v>13.905166342596</v>
       </c>
       <c r="R5">
-        <v>122.536110585639</v>
+        <v>83.43099805557601</v>
       </c>
       <c r="S5">
-        <v>0.005642859522333518</v>
+        <v>0.002511948978752229</v>
       </c>
       <c r="T5">
-        <v>0.004592450762572631</v>
+        <v>0.00206458578252028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H6">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I6">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J6">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N6">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O6">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P6">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q6">
-        <v>108.213618567722</v>
+        <v>172.143381745583</v>
       </c>
       <c r="R6">
-        <v>973.922567109498</v>
+        <v>1549.290435710247</v>
       </c>
       <c r="S6">
-        <v>0.0298998023552056</v>
+        <v>0.03109746272147386</v>
       </c>
       <c r="T6">
-        <v>0.0365010070470843</v>
+        <v>0.03833878391855398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J7">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N7">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O7">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P7">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q7">
-        <v>94.97385685375612</v>
+        <v>76.47805376951277</v>
       </c>
       <c r="R7">
-        <v>854.764711683805</v>
+        <v>688.302483925615</v>
       </c>
       <c r="S7">
-        <v>0.02624160975692503</v>
+        <v>0.01381565414825668</v>
       </c>
       <c r="T7">
-        <v>0.03203516770061839</v>
+        <v>0.01703275228038871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J8">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P8">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q8">
         <v>143.3046427265839</v>
@@ -948,10 +948,10 @@
         <v>1289.741784539255</v>
       </c>
       <c r="S8">
-        <v>0.03959557540742175</v>
+        <v>0.02588778458872363</v>
       </c>
       <c r="T8">
-        <v>0.04833738898371123</v>
+        <v>0.03191598582709411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J9">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N9">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O9">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P9">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q9">
-        <v>675.7555350249371</v>
+        <v>819.3332955428706</v>
       </c>
       <c r="R9">
-        <v>6081.799815224434</v>
+        <v>7373.999659885834</v>
       </c>
       <c r="S9">
-        <v>0.1867136244504865</v>
+        <v>0.1480114213874534</v>
       </c>
       <c r="T9">
-        <v>0.2279357984005976</v>
+        <v>0.1824771992775193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J10">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N10">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O10">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P10">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q10">
-        <v>96.25007759529085</v>
+        <v>89.21357817315335</v>
       </c>
       <c r="R10">
-        <v>577.5004655717451</v>
+        <v>535.28146903892</v>
       </c>
       <c r="S10">
-        <v>0.0265942340239864</v>
+        <v>0.01611630893593803</v>
       </c>
       <c r="T10">
-        <v>0.02164376232300486</v>
+        <v>0.01324609001906172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J11">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N11">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O11">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P11">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q11">
-        <v>509.9999894348434</v>
+        <v>1104.447560422596</v>
       </c>
       <c r="R11">
-        <v>4589.99990491359</v>
+        <v>9940.028043803364</v>
       </c>
       <c r="S11">
-        <v>0.1409147858383068</v>
+        <v>0.1995169171756189</v>
       </c>
       <c r="T11">
-        <v>0.172025605046413</v>
+        <v>0.2459762085480377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H12">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I12">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J12">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N12">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O12">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P12">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q12">
-        <v>0.280243535793</v>
+        <v>101.2098609460315</v>
       </c>
       <c r="R12">
-        <v>2.522191822137</v>
+        <v>607.259165676189</v>
       </c>
       <c r="S12">
-        <v>7.743227185671477E-05</v>
+        <v>0.01828342075018824</v>
       </c>
       <c r="T12">
-        <v>9.452757804673647E-05</v>
+        <v>0.01502725208830694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H13">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I13">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J13">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P13">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q13">
-        <v>0.422855310963</v>
+        <v>189.6471242193155</v>
       </c>
       <c r="R13">
-        <v>3.805697798667</v>
+        <v>1137.882745315893</v>
       </c>
       <c r="S13">
-        <v>0.0001168364055281111</v>
+        <v>0.03425948947814376</v>
       </c>
       <c r="T13">
-        <v>0.0001426312592596486</v>
+        <v>0.02815807784762954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H14">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I14">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J14">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N14">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O14">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P14">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q14">
-        <v>1.993981572831</v>
+        <v>1084.292876493213</v>
       </c>
       <c r="R14">
-        <v>17.945834155479</v>
+        <v>6505.757258959281</v>
       </c>
       <c r="S14">
-        <v>0.0005509441021996493</v>
+        <v>0.1958760015284326</v>
       </c>
       <c r="T14">
-        <v>0.0006725801835756196</v>
+        <v>0.1609916488404965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H15">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I15">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J15">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N15">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O15">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P15">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q15">
-        <v>0.2840093364555</v>
+        <v>118.063854875478</v>
       </c>
       <c r="R15">
-        <v>1.704056018733</v>
+        <v>472.2554195019121</v>
       </c>
       <c r="S15">
-        <v>7.847277578781091E-05</v>
+        <v>0.02132807133514957</v>
       </c>
       <c r="T15">
-        <v>6.386520124798229E-05</v>
+        <v>0.01168644565623334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H16">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I16">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J16">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N16">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O16">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P16">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q16">
-        <v>1.504879395534</v>
+        <v>1461.608638073307</v>
       </c>
       <c r="R16">
-        <v>13.543914559806</v>
+        <v>8769.651828439839</v>
       </c>
       <c r="S16">
-        <v>0.0004158034551513388</v>
+        <v>0.2640375695828056</v>
       </c>
       <c r="T16">
-        <v>0.0005076035174539752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10.070754</v>
-      </c>
-      <c r="H17">
-        <v>20.141508</v>
-      </c>
-      <c r="I17">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J17">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.99123566666667</v>
-      </c>
-      <c r="N17">
-        <v>32.973707</v>
-      </c>
-      <c r="O17">
-        <v>0.06247112414817082</v>
-      </c>
-      <c r="P17">
-        <v>0.06381790718517789</v>
-      </c>
-      <c r="Q17">
-        <v>110.690030555026</v>
-      </c>
-      <c r="R17">
-        <v>664.1401833301559</v>
-      </c>
-      <c r="S17">
-        <v>0.03058404367298496</v>
-      </c>
-      <c r="T17">
-        <v>0.02489087565137031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>10.070754</v>
-      </c>
-      <c r="H18">
-        <v>20.141508</v>
-      </c>
-      <c r="I18">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J18">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>16.58451233333333</v>
-      </c>
-      <c r="N18">
-        <v>49.753537</v>
-      </c>
-      <c r="O18">
-        <v>0.09426175184784684</v>
-      </c>
-      <c r="P18">
-        <v>0.09629389277948987</v>
-      </c>
-      <c r="Q18">
-        <v>167.018543918966</v>
-      </c>
-      <c r="R18">
-        <v>1002.111263513796</v>
-      </c>
-      <c r="S18">
-        <v>0.04614780948024658</v>
-      </c>
-      <c r="T18">
-        <v>0.03755747276710053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>10.070754</v>
-      </c>
-      <c r="H19">
-        <v>20.141508</v>
-      </c>
-      <c r="I19">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J19">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>78.20455633333331</v>
-      </c>
-      <c r="N19">
-        <v>234.613669</v>
-      </c>
-      <c r="O19">
-        <v>0.4444929301687812</v>
-      </c>
-      <c r="P19">
-        <v>0.4540755260734272</v>
-      </c>
-      <c r="Q19">
-        <v>787.5788485121417</v>
-      </c>
-      <c r="R19">
-        <v>4725.47309107285</v>
-      </c>
-      <c r="S19">
-        <v>0.2176107981724723</v>
-      </c>
-      <c r="T19">
-        <v>0.177102916004887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>10.070754</v>
-      </c>
-      <c r="H20">
-        <v>20.141508</v>
-      </c>
-      <c r="I20">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J20">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>11.1389315</v>
-      </c>
-      <c r="N20">
-        <v>22.277863</v>
-      </c>
-      <c r="O20">
-        <v>0.06331058615409581</v>
-      </c>
-      <c r="P20">
-        <v>0.04311697781563077</v>
-      </c>
-      <c r="Q20">
-        <v>112.177438959351</v>
-      </c>
-      <c r="R20">
-        <v>448.709755837404</v>
-      </c>
-      <c r="S20">
-        <v>0.03099501983198807</v>
-      </c>
-      <c r="T20">
-        <v>0.01681689952880529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>10.070754</v>
-      </c>
-      <c r="H21">
-        <v>20.141508</v>
-      </c>
-      <c r="I21">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J21">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>59.02182200000001</v>
-      </c>
-      <c r="N21">
-        <v>177.065466</v>
-      </c>
-      <c r="O21">
-        <v>0.3354636076811054</v>
-      </c>
-      <c r="P21">
-        <v>0.3426956961462742</v>
-      </c>
-      <c r="Q21">
-        <v>594.394249993788</v>
-      </c>
-      <c r="R21">
-        <v>3566.365499962728</v>
-      </c>
-      <c r="S21">
-        <v>0.1642332160324417</v>
-      </c>
-      <c r="T21">
-        <v>0.1336614805353229</v>
+        <v>0.2170140463930336</v>
       </c>
     </row>
   </sheetData>
